--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zulvikar Harist\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zulvikar Harist\Documents\Overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC0AE67-5A81-4AF2-872E-031B059494A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8141EA14-273D-427F-AF70-3A5FD44C9536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7273838F-8A78-47A2-8890-062DA37A8E5A}"/>
   </bookViews>
@@ -1805,12 +1805,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1820,27 +1835,27 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2159,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F75D78-B2ED-431C-890E-F7B3CF385757}">
   <dimension ref="A4:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="64" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,499 +2197,499 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="183" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="219" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="225" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="294.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="268.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" ht="228" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="199.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" ht="272.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="277.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="285" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>11</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="262.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="311.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>14</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="7" t="s">
         <v>31</v>
       </c>
@@ -2692,1824 +2707,1896 @@
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16" ht="355.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>15</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="390" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="5" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" ht="229.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="5">
         <v>17</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="5" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" ht="193.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
         <v>18</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="5" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="234" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>19</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="234" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="277.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>20</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="5" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" ht="317.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="5">
         <v>21</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="5" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:16" ht="245.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
         <v>22</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5" t="s">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="5">
         <v>23</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="5" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" ht="375" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="5">
         <v>24</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="5" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
     </row>
     <row r="35" spans="1:16" ht="309" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="5">
         <v>25</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="5" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" ht="324.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="5">
         <v>26</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="5" t="s">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" ht="329.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="5">
         <v>27</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="5" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" ht="342" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="5">
         <v>28</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="5" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" ht="270.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="5">
         <v>29</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="5" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="5">
         <v>30</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="5" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:16" ht="322.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="5">
         <v>31</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="5" t="s">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
     </row>
     <row r="42" spans="1:16" ht="262.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="5">
         <v>32</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="5" t="s">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" ht="282.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="5">
         <v>33</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="5" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:16" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>34</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" ht="224.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>35</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="5" t="s">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:16" ht="282" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
     </row>
     <row r="49" spans="1:16" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="5">
         <v>36</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="5" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
     </row>
     <row r="50" spans="1:16" ht="283.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="5">
         <v>37</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="5" t="s">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
     </row>
     <row r="51" spans="1:16" ht="256.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="5">
         <v>38</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5" t="s">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
     </row>
     <row r="52" spans="1:16" ht="240.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="5">
         <v>39</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="5" t="s">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
     </row>
     <row r="53" spans="1:16" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>40</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="5" t="s">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="258.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>41</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="5" t="s">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
     </row>
     <row r="60" spans="1:16" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
     </row>
     <row r="61" spans="1:16" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
     </row>
     <row r="62" spans="1:16" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
     </row>
     <row r="63" spans="1:16" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
     </row>
     <row r="64" spans="1:16" ht="376.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="A64" s="5">
         <v>42</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="5" t="s">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
     </row>
     <row r="65" spans="1:16" ht="280.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="5">
         <v>43</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="5" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="5" t="s">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
     </row>
     <row r="66" spans="1:16" ht="266.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="A66" s="5">
         <v>44</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="5" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="5" t="s">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
     </row>
     <row r="67" spans="1:16" ht="261" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="5">
         <v>45</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="5" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="5" t="s">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
     </row>
     <row r="68" spans="1:16" ht="232.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="A68" s="5">
         <v>46</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="5" t="s">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
     </row>
     <row r="69" spans="1:16" ht="235.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>47</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="5" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="5" t="s">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
     </row>
     <row r="70" spans="1:16" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
     </row>
     <row r="71" spans="1:16" ht="240.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>48</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="5" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="5" t="s">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
     </row>
     <row r="72" spans="1:16" ht="240" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
     </row>
     <row r="73" spans="1:16" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="5">
         <v>49</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="5" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="5" t="s">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
     </row>
     <row r="74" spans="1:16" ht="289.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="5">
         <v>50</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="5" t="s">
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
     </row>
     <row r="81" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
     </row>
     <row r="82" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
     </row>
     <row r="83" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
     </row>
     <row r="84" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
     </row>
     <row r="85" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
     </row>
     <row r="86" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
     </row>
     <row r="87" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
     </row>
     <row r="88" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
     </row>
     <row r="89" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
     </row>
     <row r="90" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
     </row>
     <row r="91" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
     </row>
     <row r="92" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
     </row>
     <row r="93" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
     </row>
     <row r="94" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
     </row>
     <row r="95" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
     </row>
     <row r="96" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
     </row>
     <row r="97" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
     </row>
     <row r="98" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
     </row>
     <row r="99" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
     </row>
     <row r="100" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
     </row>
     <row r="101" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
     </row>
     <row r="102" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
     </row>
     <row r="103" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
     </row>
     <row r="104" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
     </row>
     <row r="105" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
     </row>
     <row r="106" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
     </row>
     <row r="107" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
     </row>
     <row r="108" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
     </row>
     <row r="109" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
     </row>
     <row r="110" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
     </row>
     <row r="111" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="K74:P74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="K71:P72"/>
-    <mergeCell ref="F71:J72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="K73:P73"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="K68:P68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="K69:P70"/>
-    <mergeCell ref="F69:J70"/>
-    <mergeCell ref="D69:E70"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="K65:P65"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="K66:P66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="K67:P67"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:C63"/>
-    <mergeCell ref="D59:E63"/>
-    <mergeCell ref="F59:J63"/>
-    <mergeCell ref="K59:P63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="K64:P64"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="B53:C58"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="D53:E58"/>
-    <mergeCell ref="F53:J58"/>
-    <mergeCell ref="K53:P58"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="K50:P50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="K51:P51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="K52:P52"/>
-    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="K28:P29"/>
+    <mergeCell ref="F28:J29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:J7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="K6:P7"/>
+    <mergeCell ref="F4:J5"/>
+    <mergeCell ref="K4:P5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K12:P13"/>
+    <mergeCell ref="K16:P17"/>
+    <mergeCell ref="F12:J13"/>
+    <mergeCell ref="F16:J17"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B44:C46"/>
+    <mergeCell ref="D44:E46"/>
+    <mergeCell ref="F44:J46"/>
+    <mergeCell ref="K44:P46"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="F21:J22"/>
     <mergeCell ref="D21:E22"/>
@@ -4534,138 +4621,66 @@
     <mergeCell ref="B21:C22"/>
     <mergeCell ref="K27:P27"/>
     <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B44:C46"/>
-    <mergeCell ref="D44:E46"/>
-    <mergeCell ref="F44:J46"/>
-    <mergeCell ref="K44:P46"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="K6:P7"/>
-    <mergeCell ref="F4:J5"/>
-    <mergeCell ref="K4:P5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K12:P13"/>
-    <mergeCell ref="K16:P17"/>
-    <mergeCell ref="F12:J13"/>
-    <mergeCell ref="F16:J17"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:J7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="K28:P29"/>
-    <mergeCell ref="F28:J29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="B53:C58"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="D53:E58"/>
+    <mergeCell ref="F53:J58"/>
+    <mergeCell ref="K53:P58"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="K50:P50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="K51:P51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="K52:P52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:C63"/>
+    <mergeCell ref="D59:E63"/>
+    <mergeCell ref="F59:J63"/>
+    <mergeCell ref="K59:P63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="K64:P64"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="K68:P68"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="K69:P70"/>
+    <mergeCell ref="F69:J70"/>
+    <mergeCell ref="D69:E70"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="K65:P65"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="K66:P66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="K67:P67"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="K74:P74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="K71:P72"/>
+    <mergeCell ref="F71:J72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="K73:P73"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zulvikar Harist\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zulvikar Harist\Documents\Overview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53591790-B91C-4178-8519-36AB2601415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB95B51-8F57-4CD2-8637-0157DB290DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14FE3EA0-9F4D-499B-AC39-F534D74C6B89}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t xml:space="preserve">No </t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amar Putusan </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>1261/Pid.Sus/2024/PN Tng</t>
@@ -1817,22 +1814,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2150,16 +2146,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20189730-28E7-4D4A-85F8-BE3DD4E183B7}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="65.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="215.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="215.88671875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2178,909 +2176,907 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="373.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="246.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="264.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="384.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="380.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="277.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="216" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="330" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="297" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="258.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="307.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="285.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="306.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="288.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="302.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="253.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="230.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="233.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="208.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
